--- a/data/trans_dic/P25_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina</t>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,7 +710,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0,53%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,61; 5,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,83</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,46</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,08</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,71</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,63</t>
         </is>
       </c>
     </row>
@@ -796,7 +905,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,52 +915,82 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,66%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,98%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>2,51%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0,68%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>2,07%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,99</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,38</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,52; 4,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 4,41</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,34</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 6,22</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 2,68</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,28</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,86</t>
+          <t>0,54; 6,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,57</t>
+          <t>1,28; 7,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 2,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,03</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,96</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 2,95</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 4,16</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 5,18</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>2,8%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>3,52%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,15</t>
+          <t>0,57; 3,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,02</t>
+          <t>0,45; 4,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,24</t>
+          <t>1,77; 9,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,03</t>
+          <t>1,77; 14,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,92</t>
+          <t>0,68; 4,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,37</t>
+          <t>0,77; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,44</t>
+          <t>0,71; 3,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,38</t>
+          <t>0,29; 2,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,84</t>
+          <t>1,19; 5,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,79</t>
+          <t>1,85; 7,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 2,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 2,33</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 2,96</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,93</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 6,48</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 9,87</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,99%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>2,53%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>6,99%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 12,99</t>
+          <t>6,17; 13,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,05</t>
+          <t>3,48; 9,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,96</t>
+          <t>5,13; 10,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,89</t>
+          <t>8,15; 16,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,64</t>
+          <t>6,88; 17,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,01</t>
+          <t>7,07; 16,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,22</t>
+          <t>2,38; 6,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,22</t>
+          <t>1,59; 5,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,61</t>
+          <t>1,54; 5,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,1</t>
+          <t>2,89; 8,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,14</t>
+          <t>0,85; 5,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,97</t>
+          <t>2,43; 8,04</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 9,1</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 6,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 7,32</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 11,14</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 11,18</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 10,89</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1510,87 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>14,69%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>10,72%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,05%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>13,47%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>17,94%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>20,83%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 15,97</t>
+          <t>7,42; 15,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 18,57</t>
+          <t>9,76; 17,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 19,07</t>
+          <t>10,24; 18,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,34; 28,47</t>
+          <t>14,69; 26,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 15,45</t>
+          <t>15,64; 28,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 15,58</t>
+          <t>16,7; 29,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,48; 17,23</t>
+          <t>6,18; 14,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,44</t>
+          <t>6,95; 15,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 14,3</t>
+          <t>9,17; 17,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,47; 15,77</t>
+          <t>10,21; 20,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,68</t>
+          <t>10,48; 20,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 22,01</t>
+          <t>13,95; 25,36</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 14,14</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 15,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 16,55</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>13,42; 20,91</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 22,33</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 25,06</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24,8%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>24,17%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>21,98%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>23,2%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>28,37%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>28,6%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>27,24%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>30,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,46; 42,2</t>
+          <t>23,36; 39,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 31,53</t>
+          <t>18,53; 31,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,82; 27,42</t>
+          <t>15,61; 27,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 39,89</t>
+          <t>12,94; 26,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,08; 35,26</t>
+          <t>23,79; 41,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 25,92</t>
+          <t>25,65; 42,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 31,16</t>
+          <t>21,88; 33,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,7; 33,13</t>
+          <t>15,42; 26,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,96; 35,42</t>
+          <t>19,01; 30,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,16; 26,92</t>
+          <t>20,63; 35,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,31</t>
+          <t>16,55; 32,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,1; 33,07</t>
+          <t>21,87; 38,07</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 33,33</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 26,69</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 27,55</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 29,91</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 33,66</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>25,45; 36,43</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>11,41%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>6,6%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>8,78%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>10,09%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,88; 10,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,47</t>
+          <t>5,95; 8,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,5</t>
+          <t>6,0; 8,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,72</t>
+          <t>7,14; 10,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,78</t>
+          <t>9,46; 13,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,98</t>
+          <t>9,98; 14,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,96</t>
+          <t>6,92; 10,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,2</t>
+          <t>5,34; 7,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 9,98</t>
+          <t>6,2; 9,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 7,7</t>
+          <t>7,64; 11,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,38</t>
+          <t>6,82; 11,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,53; 11,8</t>
+          <t>8,96; 13,19</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 9,71</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 7,87</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 8,51</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 10,43</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 11,74</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 13,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7071</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5615</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10577</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5615</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7071</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10577</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22188</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2138</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1643</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32721</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2909; 27454</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27444</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25608</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2922; 29240</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2158</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2175</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2475</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9257</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8149</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5085</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5639</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12263</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8149</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7559</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>12689</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13569</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13700</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 24951</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2651</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2639</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2696; 24437</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2229; 22412</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17255</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19639</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>256; 2890</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>587; 3396</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3138; 29181</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2182; 21765</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2038; 21833</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3151; 31946</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>695; 4031</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1141; 4908</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5231</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10757</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12182</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14080</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13901</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12130</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1502</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2209</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19311</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>18539</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>22887</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>20787</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5821</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17397</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15003</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3855; 24543</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3032; 30457</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1056; 5830</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1073; 8631</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4877; 28664</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5522; 24928</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5064; 26059</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2096; 21083</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>636; 2938</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1013; 3940</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8663; 37343</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10333; 32638</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11692; 41246</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10046; 40806</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2283; 7354</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3175; 11409</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49548</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76290</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6339</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6280</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28812</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21209</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19751</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>34173</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>88873</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>59018</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>69299</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>110463</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7659</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39955; 87659</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22507; 58939</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32631; 69807</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53075; 104962</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3946; 10019</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4027; 9148</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16250; 47578</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10648; 35761</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10176; 34751</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19109; 55671</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>441; 2671</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1301; 4300</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>65783; 121126</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>40416; 85435</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>49649; 94898</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>83039; 146242</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5030; 12243</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6222; 12029</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>55109</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>67216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70823</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>96344</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9514</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10089</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50169</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>52369</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65006</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>75913</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8866</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>105279</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>119586</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>135829</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>172257</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>16678</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>18955</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36732; 78258</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49195; 90276</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50514; 93599</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>72721; 129280</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6918; 12603</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7445; 13209</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31052; 72658</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34791; 76406</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>47259; 88093</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>52789; 105988</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5110; 9789</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6472; 11768</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>79801; 141145</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>93579; 151359</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>109532; 166909</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>135819; 211628</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>13382; 20764</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>15533; 22801</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>165461</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>129793</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>114414</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>111025</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14617</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15482</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>195039</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>142563</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>171795</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>202426</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15403</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18066</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>360500</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>272356</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>286208</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>313451</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>30019</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>33547</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>127385; 212937</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>98065; 164456</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>83120; 146785</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>73279; 152630</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11057; 19203</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11760; 19339</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>156447; 241139</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>107130; 183441</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>131664; 213142</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>151579; 259799</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10548; 20952</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13928; 24242</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>305445; 420080</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>224518; 326739</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>234319; 337447</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>254080; 389169</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>23965; 37090</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>27875; 39898</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>288868</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>246527</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>248016</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>302890</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34210</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>36627</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>302972</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>238192</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>273766</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>337333</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>26571</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>33297</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>591840</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>484719</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>521783</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>640224</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>60781</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>69924</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>237251; 355653</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>205090; 296113</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>206997; 298012</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>245749; 366010</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28352; 41834</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30072; 43713</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>248991; 360959</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>192531; 286162</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>223966; 331215</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>275893; 412229</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20659; 33750</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>27136; 39928</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>514616; 684683</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>418883; 555515</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>456142; 600725</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>556697; 735242</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>52248; 70738</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>61852; 80857</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
